--- a/biology/Médecine/Syndrome_FG/Syndrome_FG.xlsx
+++ b/biology/Médecine/Syndrome_FG/Syndrome_FG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois considéré comme rare, le syndrome FG est une maladie génétique fréquente atteignant exclusivement les garçons. Les manifestations cliniques sont nombreuses et les personnes atteintes ne les ont pas forcément toutes. Les manifestations principales sont:
 Macrocéphalie
@@ -516,7 +528,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome de Keller
 Syndrome de Opitz-Kaveggia
@@ -548,7 +562,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'incidence de 1 sur 1000 est retrouvée dans la population de l'Utah et en Italie</t>
         </is>
@@ -578,7 +594,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mutation probable du gène FGS1 situé sur le locus q12-q21.31 du chromosome X</t>
         </is>
@@ -608,7 +626,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les enfants présentent généralement une petite taille avec une tête disproportionnée. Leur front est large, leur lèvre supérieure fine et la lèvre inférieure large. Les oreilles sont petites, le patient est atteint de surdité, ses pouces sont larges.
 Les malformations décrites dans ce syndrome :
@@ -648,7 +668,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Transmission récessive liée à l'X</t>
         </is>
@@ -679,6 +701,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -704,10 +728,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 305450 [1]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 305450 
  Portail de la médecine                     </t>
         </is>
       </c>
